--- a/Excel/SkillConfig@cs.xlsx
+++ b/Excel/SkillConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">0.触发进入CD
+1.手动触发CD
+2.执行指定Ability时进入CD
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -41,31 +66,37 @@
     <t>技能名</t>
   </si>
   <si>
-    <t>ability名</t>
-  </si>
-  <si>
     <t>简介</t>
   </si>
   <si>
     <t>图标</t>
   </si>
   <si>
+    <t>触发冷却时机</t>
+  </si>
+  <si>
     <t>冷却时间公式</t>
   </si>
   <si>
+    <t>进入cd的ability名</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>TriggerCDType</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
     <t>AbilityName</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>int</t>
@@ -105,7 +136,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +300,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1089,7 +1125,7 @@
   <dimension ref="C2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1098,8 +1134,11 @@
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="15.75" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:4">
@@ -1107,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" spans="3:10">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1129,77 +1168,87 @@
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" spans="3:10">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" spans="3:10">
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
+    <row r="6" s="1" customFormat="1" spans="3:9">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="3:9">
+    <row r="7" spans="3:10">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="3:9">
@@ -1207,7 +1256,7 @@
         <v>2001</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1218,7 +1267,7 @@
         <v>2002</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1229,7 +1278,7 @@
         <v>2003</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1240,7 +1289,7 @@
         <v>2004</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1250,5 +1299,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>